--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2133561\Downloads\ARSW_LOAD-BALANCING_AZURE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdavi_000\Documents\david\Universidad\8vo semestre\ARSW\ARSW-LAB-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E264B5-9223-48CD-B7BD-88FE714E066F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{10D8427F-8604-4ED5-A32C-0A55E6C3F2E8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,40 +24,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>28.98 </t>
-  </si>
-  <si>
-    <t>29.24 </t>
-  </si>
-  <si>
-    <t>29.96 </t>
-  </si>
-  <si>
-    <t>30.29 </t>
-  </si>
-  <si>
-    <t>30.85 </t>
-  </si>
-  <si>
-    <t>33.00 </t>
-  </si>
-  <si>
-    <t>33.34 </t>
-  </si>
-  <si>
-    <t>33.46 </t>
-  </si>
-  <si>
-    <t>34.35 </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+  <si>
+    <t>28.96 </t>
+  </si>
+  <si>
+    <t>29.65 </t>
+  </si>
+  <si>
+    <t>29.61 </t>
+  </si>
+  <si>
+    <t>30.34 </t>
+  </si>
+  <si>
+    <t>30.76 </t>
+  </si>
+  <si>
+    <t>31.48 </t>
+  </si>
+  <si>
+    <t>30.98 </t>
+  </si>
+  <si>
+    <t>32.98 </t>
+  </si>
+  <si>
+    <t>33.53 </t>
+  </si>
+  <si>
+    <t>33.97 </t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>T(s)</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>29.25 </t>
+  </si>
+  <si>
+    <t>29.41 </t>
+  </si>
+  <si>
+    <t>30.27 </t>
+  </si>
+  <si>
+    <t>30.15 </t>
+  </si>
+  <si>
+    <t>31.05 </t>
+  </si>
+  <si>
+    <t>31.67 </t>
+  </si>
+  <si>
+    <t>32.47 </t>
+  </si>
+  <si>
+    <t>32.81 </t>
+  </si>
+  <si>
+    <t>33.62 </t>
+  </si>
+  <si>
+    <t>34.41 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +117,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,15 +140,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,97 +478,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948B4EB8-C4F9-409A-82BF-3A45B1BA0F8A}">
-  <dimension ref="A2:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
         <v>1000000</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="G3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
         <v>1010000</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="G4" s="1">
+        <v>1010000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
         <v>1020000</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="G5" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
         <v>1030000</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="G6" s="3">
+        <v>1030000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
         <v>1040000</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="G7" s="3">
+        <v>1040000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
         <v>1050000</v>
       </c>
-      <c r="B7" s="1">
-        <v>31.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
         <v>1060000</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="G9" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
         <v>1070000</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
         <v>1080000</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
         <v>1090000</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1090000</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>28.96 </t>
   </si>
@@ -96,6 +96,39 @@
   </si>
   <si>
     <t>34.41 </t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>22.89 </t>
+  </si>
+  <si>
+    <t>23.91 </t>
+  </si>
+  <si>
+    <t>24.78 </t>
+  </si>
+  <si>
+    <t>24.04 </t>
+  </si>
+  <si>
+    <t>25.96 </t>
+  </si>
+  <si>
+    <t>26.41 </t>
+  </si>
+  <si>
+    <t>27.01 </t>
+  </si>
+  <si>
+    <t>27.43 </t>
+  </si>
+  <si>
+    <t>28.55 </t>
+  </si>
+  <si>
+    <t>27.59 </t>
   </si>
 </sst>
 </file>
@@ -479,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,6 +686,99 @@
         <v>23</v>
       </c>
     </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>1010000</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>1030000</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>1040000</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <v>1090000</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
